--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail13 Features.xlsx
@@ -4487,7 +4487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,29 +4498,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,115 +4539,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4666,72 +4654,66 @@
         <v>1.21619274137992e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.587815081765921</v>
+        <v>8.419599670778426e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.53390383856767</v>
+        <v>1.724451129029013e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.419599670778426e-07</v>
+        <v>-0.1155135388544085</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.724451129029013e-06</v>
+        <v>0.3458180271829405</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1155135388544085</v>
+        <v>0.1326106491755958</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3458180271829405</v>
+        <v>1.917304187623832</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1326106491755958</v>
+        <v>2.765034487499817</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.948409616738213</v>
+        <v>5.209481777150988</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.765034487499817</v>
+        <v>2.657809907021843e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.209481777150988</v>
+        <v>4784631889.185449</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.657809907021843e-17</v>
+        <v>2.503027568943263e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4784631889.185449</v>
+        <v>608.4445101133629</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.503027568943263e-08</v>
+        <v>9.811561358621706e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>608.4445101133629</v>
+        <v>7.892422878953485</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.811561358621706e-05</v>
+        <v>1.544039606027296</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.892422878953485</v>
+        <v>0.006111654821689317</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.544039606027296</v>
+        <v>4.197754851260849</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006111654821689317</v>
+        <v>0.9583758845285348</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.197754851260849</v>
+        <v>1.15123861452563</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9583758845285348</v>
+        <v>117</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.15123861452563</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.229149614201854</v>
       </c>
     </row>
@@ -4746,72 +4728,66 @@
         <v>8.859217703721381e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.177476606530502</v>
+        <v>6.098686651088541e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.34267258254867</v>
+        <v>1.712457939912147e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.098686651088541e-07</v>
+        <v>-0.1148658149884937</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.712457939912147e-06</v>
+        <v>0.3452978240335325</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1148658149884937</v>
+        <v>0.1321006105475556</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3452978240335325</v>
+        <v>1.919995393084642</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1321006105475556</v>
+        <v>2.759441290832193</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.94903390495191</v>
+        <v>5.189522033079943</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.759441290832193</v>
+        <v>2.678293960513625e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.189522033079943</v>
+        <v>4839965553.946933</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.678293960513625e-17</v>
+        <v>2.478581165043266e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4839965553.946933</v>
+        <v>627.3974996015681</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.478581165043266e-08</v>
+        <v>0.0001059837211646562</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>627.3974996015681</v>
+        <v>8.400038947220164</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001059837211646562</v>
+        <v>1.179177528874042</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.400038947220164</v>
+        <v>0.007478280712097119</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.179177528874042</v>
+        <v>3.66090011985825</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007478280712097119</v>
+        <v>0.959710451899182</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.66090011985825</v>
+        <v>1.153837622766299</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.959710451899182</v>
+        <v>108</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.153837622766299</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.432400780349584</v>
       </c>
     </row>
@@ -4826,72 +4802,66 @@
         <v>6.645548899635145e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.484461356751463</v>
+        <v>4.426775271804069e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8.556183513067317</v>
+        <v>1.703762301474841e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.426775271804069e-07</v>
+        <v>-0.1111489165879883</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.703762301474841e-06</v>
+        <v>0.3368035744278811</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1111489165879883</v>
+        <v>0.1254896748046473</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3368035744278811</v>
+        <v>1.912463982868457</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1254896748046473</v>
+        <v>2.747384755334157</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.946995445408105</v>
+        <v>5.168031562971839</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.747384755334157</v>
+        <v>2.700614826108127e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.168031562971839</v>
+        <v>4762806973.350589</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.700614826108127e-17</v>
+        <v>2.512911545331689e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4762806973.350589</v>
+        <v>612.6163863506445</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.512911545331689e-08</v>
+        <v>0.0001121993924329485</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>612.6163863506445</v>
+        <v>8.53863255715666</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001121993924329485</v>
+        <v>1.260334788240745</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.53863255715666</v>
+        <v>0.008180260898508405</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.260334788240745</v>
+        <v>3.505976270939744</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008180260898508405</v>
+        <v>0.9586457223219268</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.505976270939744</v>
+        <v>1.124622605378427</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9586457223219268</v>
+        <v>74</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.124622605378427</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.237196650854246</v>
       </c>
     </row>
@@ -4906,72 +4876,66 @@
         <v>5.257567228607168e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.60947944521452</v>
+        <v>3.221208380433819e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.933491793847449</v>
+        <v>1.697444029640551e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.221208380433819e-07</v>
+        <v>-0.1022287546583292</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.697444029640551e-06</v>
+        <v>0.3153803527702385</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1022287546583292</v>
+        <v>0.1096681562503218</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3153803527702385</v>
+        <v>1.918020046159458</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1096681562503218</v>
+        <v>2.616592031245319</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.947325787841743</v>
+        <v>5.569290905339519</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.616592031245319</v>
+        <v>2.967990591871672e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.569290905339519</v>
+        <v>4405770553.61451</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.967990591871672e-17</v>
+        <v>2.727164750413645e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4405770553.61451</v>
+        <v>576.1111384038434</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.727164750413645e-08</v>
+        <v>0.0001149623465434074</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>576.1111384038434</v>
+        <v>7.864744286972007</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001149623465434074</v>
+        <v>1.298678801057722</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.864744286972007</v>
+        <v>0.00711090428590135</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.298678801057722</v>
+        <v>3.616407789973525</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00711090428590135</v>
+        <v>0.9599148288178306</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.616407789973525</v>
+        <v>1.17079407450013</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9599148288178306</v>
+        <v>58</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.17079407450013</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.206936241302294</v>
       </c>
     </row>
@@ -5348,7 +5312,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.335420505001968</v>
+        <v>1.320746910331971</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.303615826971413</v>
@@ -5437,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.326823186901725</v>
+        <v>1.317347887821408</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.309919791199178</v>
@@ -5526,7 +5490,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.322007681969659</v>
+        <v>1.308795955040685</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.338562405047685</v>
@@ -5615,7 +5579,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.33430147333954</v>
+        <v>1.317863940619491</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.158379576522256</v>
@@ -5704,7 +5668,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.359612448788085</v>
+        <v>1.339275039936838</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.267222976792272</v>
@@ -5793,7 +5757,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.394295061074401</v>
+        <v>1.36516312319773</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.07859210009065</v>
@@ -5882,7 +5846,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.433614619578996</v>
+        <v>1.394269607161196</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.118449654953991</v>
@@ -5971,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.410328937657565</v>
+        <v>1.368534745114701</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.326224957865264</v>
@@ -6060,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.404046307909992</v>
+        <v>1.369418391950562</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.350683589519285</v>
@@ -6149,7 +6113,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.404316945922074</v>
+        <v>1.37405646356445</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.389036784208225</v>
@@ -6238,7 +6202,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.419231360759222</v>
+        <v>1.389869198109928</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.350182212644381</v>
@@ -6327,7 +6291,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.42684422301484</v>
+        <v>1.399256918462545</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.127108486596891</v>
@@ -6416,7 +6380,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.417999515626249</v>
+        <v>1.392298198182007</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.374207941767501</v>
@@ -6505,7 +6469,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.390304637028111</v>
+        <v>1.367917451361057</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.303985680478637</v>
@@ -6594,7 +6558,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.403286739853288</v>
+        <v>1.375355237928758</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.329948298524309</v>
@@ -6683,7 +6647,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.398604234437329</v>
+        <v>1.373135080959555</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.160355637187032</v>
@@ -6772,7 +6736,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.390981464298388</v>
+        <v>1.363567336177462</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.35221297435545</v>
@@ -6861,7 +6825,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.373413847949775</v>
+        <v>1.354028324436787</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.33490821146136</v>
@@ -6950,7 +6914,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.378077102896025</v>
+        <v>1.360226936896245</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.426840359257306</v>
@@ -7039,7 +7003,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.369763461784574</v>
+        <v>1.350794846107126</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.526761522415742</v>
@@ -7128,7 +7092,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.355384835378009</v>
+        <v>1.338236104653678</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.422631708184711</v>
@@ -7217,7 +7181,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.345432000446733</v>
+        <v>1.326994139213911</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.39120064367248</v>
@@ -7306,7 +7270,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.367638985393526</v>
+        <v>1.349668069823825</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.567489734436596</v>
@@ -7395,7 +7359,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.361191819581861</v>
+        <v>1.341471945640305</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.384561236684267</v>
@@ -7484,7 +7448,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.367998182440422</v>
+        <v>1.346950824860608</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.591916490197584</v>
@@ -7573,7 +7537,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.369795642969634</v>
+        <v>1.344953241144384</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.314167872575364</v>
@@ -7662,7 +7626,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.375675952576979</v>
+        <v>1.351006113706633</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.425535378847521</v>
@@ -7751,7 +7715,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.387855817395151</v>
+        <v>1.359394387156748</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.24483936264459</v>
@@ -7840,7 +7804,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.416293188246355</v>
+        <v>1.382399105483857</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.340662957755852</v>
@@ -7929,7 +7893,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.41960137349165</v>
+        <v>1.387828686999539</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.093578310056267</v>
@@ -8018,7 +7982,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.447636217723143</v>
+        <v>1.414369839828509</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.489269109016352</v>
@@ -8107,7 +8071,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469770634800339</v>
+        <v>1.431568519903335</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.499885381017326</v>
@@ -8196,7 +8160,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.492001026623668</v>
+        <v>1.449151799699883</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.650469394369053</v>
@@ -8285,7 +8249,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.487849691314623</v>
+        <v>1.446049049086579</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.612236859078472</v>
@@ -8374,7 +8338,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.497187433286915</v>
+        <v>1.456881506750254</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.505207027947042</v>
@@ -8463,7 +8427,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507790574911563</v>
+        <v>1.471511169423729</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.641226138720698</v>
@@ -8552,7 +8516,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52907350680009</v>
+        <v>1.487885947962017</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.473741354385433</v>
@@ -8641,7 +8605,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536315981825404</v>
+        <v>1.490454871078105</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.360055568257159</v>
@@ -8730,7 +8694,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544467559471113</v>
+        <v>1.49950141054854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.711346046202932</v>
@@ -8819,7 +8783,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533891730693516</v>
+        <v>1.494370944212789</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.523245159345129</v>
@@ -8908,7 +8872,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.398677485317847</v>
+        <v>1.375390333423428</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.635743677474798</v>
@@ -8997,7 +8961,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.402319416925104</v>
+        <v>1.384798075745714</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.634420064501977</v>
@@ -9086,7 +9050,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.399814122095991</v>
+        <v>1.385478423420471</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.660644002947474</v>
@@ -9175,7 +9139,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.405609572511546</v>
+        <v>1.390068135755886</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.64556543261358</v>
@@ -9264,7 +9228,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.407979053853349</v>
+        <v>1.394010783064444</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.647686449817227</v>
@@ -9353,7 +9317,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.404249481642768</v>
+        <v>1.389120543850568</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.641089119019384</v>
@@ -9442,7 +9406,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.401930449545788</v>
+        <v>1.383718367647611</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.642043826149636</v>
@@ -9531,7 +9495,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.400981088426627</v>
+        <v>1.383799088884656</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.625230269407649</v>
@@ -9620,7 +9584,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.408891776964718</v>
+        <v>1.393240885083559</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.629462024800482</v>
@@ -9906,7 +9870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509593219070313</v>
+        <v>1.458482225632701</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.738835632720738</v>
@@ -9995,7 +9959,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.382465865258232</v>
+        <v>1.364474931425723</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.725922320061101</v>
@@ -10084,7 +10048,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.395324366424521</v>
+        <v>1.377172662423261</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.717172158146662</v>
@@ -10173,7 +10137,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.412394013764289</v>
+        <v>1.392347507863924</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.751727393567044</v>
@@ -10262,7 +10226,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.413233278088353</v>
+        <v>1.39303922488622</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.743619322258741</v>
@@ -10351,7 +10315,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.411138951930128</v>
+        <v>1.38629717181449</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.752236308437124</v>
@@ -10440,7 +10404,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.432953477198472</v>
+        <v>1.408755239054688</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.758916047300229</v>
@@ -10529,7 +10493,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.431158505828282</v>
+        <v>1.412274275268489</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.736842118580262</v>
@@ -10618,7 +10582,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.439979021918994</v>
+        <v>1.42324086905565</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.742207163450234</v>
@@ -10707,7 +10671,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.459386201168206</v>
+        <v>1.442176881604341</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.768359244365178</v>
@@ -10796,7 +10760,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.466624107266777</v>
+        <v>1.446803993094588</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.766616522331777</v>
@@ -10885,7 +10849,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.47382455287425</v>
+        <v>1.461484908505017</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.784334240952429</v>
@@ -10974,7 +10938,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.476243828231985</v>
+        <v>1.467404023484567</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.783836654147157</v>
@@ -11063,7 +11027,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.477764428927348</v>
+        <v>1.477211999718513</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.800982563809092</v>
@@ -11152,7 +11116,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.480497469307219</v>
+        <v>1.480130723477516</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.777534171401841</v>
@@ -11241,7 +11205,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.568308346204273</v>
+        <v>1.560843950925663</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.769510172452371</v>
@@ -11330,7 +11294,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.616539465666468</v>
+        <v>1.601827637158546</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.192253563043406</v>
@@ -11419,7 +11383,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.612166950639573</v>
+        <v>1.601314408073618</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.925484353063735</v>
@@ -11508,7 +11472,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610348329558032</v>
+        <v>1.602048760182481</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.142770690813885</v>
@@ -11597,7 +11561,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617247757508568</v>
+        <v>1.608416544200819</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.246709649448007</v>
@@ -11686,7 +11650,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620291919708378</v>
+        <v>1.612749456366309</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.92600748118872</v>
@@ -11775,7 +11739,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.621721617362923</v>
+        <v>1.613356457078863</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.876188103645024</v>
@@ -11864,7 +11828,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.62359988751205</v>
+        <v>1.614538099249104</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.140811883221438</v>
@@ -11953,7 +11917,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612787052048012</v>
+        <v>1.603433363513322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.876723317867783</v>
@@ -12042,7 +12006,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.605017423612842</v>
+        <v>1.601220529173615</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.035251420707589</v>
@@ -12131,7 +12095,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602641472891914</v>
+        <v>1.601256392126365</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.008362405320748</v>
@@ -12220,7 +12184,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.602320056408556</v>
+        <v>1.593183741374698</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.701712212387533</v>
@@ -12309,7 +12273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.606219356728452</v>
+        <v>1.589169749865878</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.909021262917697</v>
@@ -12398,7 +12362,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.610629115304882</v>
+        <v>1.589667743845863</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.030292565771416</v>
@@ -12487,7 +12451,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612675812167042</v>
+        <v>1.592242562649317</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.660464392755644</v>
@@ -12576,7 +12540,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.628339747098775</v>
+        <v>1.598266767553263</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.065776897584324</v>
@@ -12665,7 +12629,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639713616244449</v>
+        <v>1.609700037473661</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.860506523212709</v>
@@ -12754,7 +12718,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634432464383851</v>
+        <v>1.596974653752301</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.257696458186025</v>
@@ -12843,7 +12807,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634633819714801</v>
+        <v>1.597071311581137</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.103370082724775</v>
@@ -12932,7 +12896,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.629202202747792</v>
+        <v>1.59355998891317</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.875238994173498</v>
@@ -13021,7 +12985,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623879320569999</v>
+        <v>1.59628015896235</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.623282878693054</v>
@@ -13110,7 +13074,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618687518753623</v>
+        <v>1.585621635054843</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.665484909937382</v>
@@ -13199,7 +13163,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.616499935563186</v>
+        <v>1.579035739683496</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.034964442207869</v>
@@ -13288,7 +13252,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626198697321101</v>
+        <v>1.58896656398189</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.341796826003097</v>
@@ -13377,7 +13341,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605231563687613</v>
+        <v>1.568178703358795</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.570487666069392</v>
@@ -13466,7 +13430,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.473003198242952</v>
+        <v>1.452908638334355</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.593027342680957</v>
@@ -13555,7 +13519,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.46911523125772</v>
+        <v>1.45525083826218</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.597762434222324</v>
@@ -13644,7 +13608,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.469622244321102</v>
+        <v>1.462111638844844</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.602104601368667</v>
@@ -13733,7 +13697,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.469587826719177</v>
+        <v>1.460228122346048</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.606582865220802</v>
@@ -13822,7 +13786,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.476153622550969</v>
+        <v>1.468307693927426</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.606869753478888</v>
@@ -13911,7 +13875,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.475857894228706</v>
+        <v>1.470366729914947</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.604819639801943</v>
@@ -14000,7 +13964,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.46687731095564</v>
+        <v>1.461664937510667</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.596783130434514</v>
@@ -14089,7 +14053,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.460795097131028</v>
+        <v>1.459379373010072</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.598685391209093</v>
@@ -14178,7 +14142,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.464169381213339</v>
+        <v>1.456764936361461</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.603998116260112</v>
@@ -14464,7 +14428,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.561503106947552</v>
+        <v>1.495646742388117</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.191979638833098</v>
@@ -14553,7 +14517,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.512824403851351</v>
+        <v>1.459712737644007</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.212845294554862</v>
@@ -14642,7 +14606,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.516460067017417</v>
+        <v>1.45523099484942</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.139433499778999</v>
@@ -14731,7 +14695,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.505730377246567</v>
+        <v>1.4418549710182</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.195917841113637</v>
@@ -14820,7 +14784,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.496408956334893</v>
+        <v>1.437534830273727</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.200743478020752</v>
@@ -14909,7 +14873,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495412676337555</v>
+        <v>1.427657794811905</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.184365751126868</v>
@@ -14998,7 +14962,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.498343286819902</v>
+        <v>1.428173873996172</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.115268377274659</v>
@@ -15087,7 +15051,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.53366771690068</v>
+        <v>1.452972133299285</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.991849413672591</v>
@@ -15176,7 +15140,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.538523707619199</v>
+        <v>1.459962863520377</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.21730948896453</v>
@@ -15265,7 +15229,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.537542995654312</v>
+        <v>1.461648533972378</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.220858644344263</v>
@@ -15354,7 +15318,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535243362640221</v>
+        <v>1.461820508341815</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.180187207159619</v>
@@ -15443,7 +15407,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.538928508634303</v>
+        <v>1.468440734464455</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.161286167270128</v>
@@ -15532,7 +15496,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.530686706766351</v>
+        <v>1.468360444832894</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.235421767642312</v>
@@ -15621,7 +15585,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.531957449214357</v>
+        <v>1.46893345935556</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.193464952557349</v>
@@ -15710,7 +15674,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.533295429416304</v>
+        <v>1.471499057502657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.17138017444951</v>
@@ -15799,7 +15763,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572744869375438</v>
+        <v>1.500791285941362</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.072927424673364</v>
@@ -15888,7 +15852,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586134330396848</v>
+        <v>1.51791478914214</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.644945927916502</v>
@@ -15977,7 +15941,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.584914100323552</v>
+        <v>1.526662305612151</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.610531944947383</v>
@@ -16066,7 +16030,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.606947251962788</v>
+        <v>1.545074038851879</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.95265842186169</v>
@@ -16155,7 +16119,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.588419815280791</v>
+        <v>1.529789107888787</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.033563565317826</v>
@@ -16244,7 +16208,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580586729626301</v>
+        <v>1.523740847900731</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.90169942442435</v>
@@ -16333,7 +16297,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.570597207401059</v>
+        <v>1.512370821770228</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.975015505307372</v>
@@ -16422,7 +16386,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.569156950785781</v>
+        <v>1.511208603761304</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.730753455041616</v>
@@ -16511,7 +16475,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5741188634927</v>
+        <v>1.511051189424061</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.805781661324594</v>
@@ -16600,7 +16564,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574934748349708</v>
+        <v>1.514609996050306</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.924894291544095</v>
@@ -16689,7 +16653,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.573339916169422</v>
+        <v>1.517753180898213</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.800683954100318</v>
@@ -16778,7 +16742,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.57058708252688</v>
+        <v>1.508349696288176</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.889092968952109</v>
@@ -16867,7 +16831,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.579515670615213</v>
+        <v>1.505619982562473</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.851027341641627</v>
@@ -16956,7 +16920,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.579586729149699</v>
+        <v>1.503695023221435</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.98271631231343</v>
@@ -17045,7 +17009,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590015270439615</v>
+        <v>1.50812561969019</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.720078881769945</v>
@@ -17134,7 +17098,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.596118101544105</v>
+        <v>1.514336069656894</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.619421443070882</v>
@@ -17223,7 +17187,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594654615578048</v>
+        <v>1.511479883853801</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.709403233065517</v>
@@ -17312,7 +17276,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591750221686905</v>
+        <v>1.505838636375161</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.862947063297152</v>
@@ -17401,7 +17365,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601183438514605</v>
+        <v>1.509389053251481</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.629456405934863</v>
@@ -17490,7 +17454,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609775987433614</v>
+        <v>1.512297423315487</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.79313689277748</v>
@@ -17579,7 +17543,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.622589034902934</v>
+        <v>1.523342757326261</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.353229661273513</v>
@@ -17668,7 +17632,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.630361366022133</v>
+        <v>1.523093141350197</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.407528868364862</v>
@@ -17757,7 +17721,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630924118790556</v>
+        <v>1.519736391344074</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.252448083722108</v>
@@ -17846,7 +17810,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616209282877632</v>
+        <v>1.505237752912668</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.247579424454089</v>
@@ -17935,7 +17899,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.610793821177877</v>
+        <v>1.494429610887997</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.254280715994491</v>
@@ -18024,7 +17988,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.585310703719185</v>
+        <v>1.482195033739379</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.074603925273155</v>
@@ -18113,7 +18077,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.597090915182422</v>
+        <v>1.505097790180232</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.030174961493985</v>
@@ -18202,7 +18166,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625587091071637</v>
+        <v>1.558146355798109</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.16157394519522</v>
@@ -18291,7 +18255,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626456676362565</v>
+        <v>1.55570329410183</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.164521754336985</v>
@@ -18380,7 +18344,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.626910305636799</v>
+        <v>1.558064893843282</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.180622632822101</v>
@@ -18469,7 +18433,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629176509200163</v>
+        <v>1.55735481450699</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.199457140572868</v>
@@ -18558,7 +18522,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615704359405509</v>
+        <v>1.546287871481438</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.250779433048514</v>
@@ -18647,7 +18611,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.58954252011492</v>
+        <v>1.528754452931214</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.139660568255864</v>
@@ -18736,7 +18700,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592825108458497</v>
+        <v>1.534011361744714</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.165498482266583</v>
@@ -19022,7 +18986,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.488426235717796</v>
+        <v>1.426865334320119</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.373737349648942</v>
@@ -19111,7 +19075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.447676251753475</v>
+        <v>1.393499750745017</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.304443700030157</v>
@@ -19200,7 +19164,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.436669753670708</v>
+        <v>1.384831214313927</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.382452239048011</v>
@@ -19289,7 +19253,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.457638635573897</v>
+        <v>1.40539419505443</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.246692469695204</v>
@@ -19378,7 +19342,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.469065039151546</v>
+        <v>1.404045082215878</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.400578370948653</v>
@@ -19467,7 +19431,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.471656760825392</v>
+        <v>1.407979722915572</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.297740461142184</v>
@@ -19556,7 +19520,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.478967860674931</v>
+        <v>1.414656168342679</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.427159642854175</v>
@@ -19645,7 +19609,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.483406182747142</v>
+        <v>1.414985542332047</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.392377008970227</v>
@@ -19734,7 +19698,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.474594155981763</v>
+        <v>1.409764463656079</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.38309199383344</v>
@@ -19823,7 +19787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484210794399591</v>
+        <v>1.416663165124473</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.342509893519682</v>
@@ -19912,7 +19876,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.478786149001232</v>
+        <v>1.41224753490607</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.418511740079811</v>
@@ -20001,7 +19965,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.468588817709741</v>
+        <v>1.413845930497481</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.286551767180436</v>
@@ -20090,7 +20054,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487104329276974</v>
+        <v>1.431792333272541</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.432059802884905</v>
@@ -20179,7 +20143,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.487654575142428</v>
+        <v>1.439747702580741</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.458769035738483</v>
@@ -20268,7 +20232,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500682550649917</v>
+        <v>1.446996924512017</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.435222403412522</v>
@@ -20357,7 +20321,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531224674675433</v>
+        <v>1.472728684679119</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.222034952650225</v>
@@ -20446,7 +20410,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.543230525735831</v>
+        <v>1.477820208758764</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.519024976526544</v>
@@ -20535,7 +20499,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541961788439849</v>
+        <v>1.475798452370083</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.79338387799402</v>
@@ -20624,7 +20588,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.534491826663172</v>
+        <v>1.466155450746249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.844582550569566</v>
@@ -20713,7 +20677,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516186277270758</v>
+        <v>1.457704919896398</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.848489896560816</v>
@@ -20802,7 +20766,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.511668875153993</v>
+        <v>1.451660494593664</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.896472559040261</v>
@@ -20891,7 +20855,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.510215978794599</v>
+        <v>1.443086104752271</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.693020534393305</v>
@@ -20980,7 +20944,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.511230048416561</v>
+        <v>1.445216153966191</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.435157979177756</v>
@@ -21069,7 +21033,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.500201757607594</v>
+        <v>1.437161313119775</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.799855329683072</v>
@@ -21158,7 +21122,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.48689542065513</v>
+        <v>1.427896612107753</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.884939157211223</v>
@@ -21247,7 +21211,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.483062201387152</v>
+        <v>1.427504087180789</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.63928411189362</v>
@@ -21336,7 +21300,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.473349229724493</v>
+        <v>1.418157696466828</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.646013380047344</v>
@@ -21425,7 +21389,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467799439204285</v>
+        <v>1.408922674374971</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.670160878046682</v>
@@ -21514,7 +21478,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.479010915068373</v>
+        <v>1.409499785345821</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.405964212240751</v>
@@ -21603,7 +21567,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.480782961238383</v>
+        <v>1.408285085532458</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.609659893641274</v>
@@ -21692,7 +21656,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.490854914045781</v>
+        <v>1.415334648867227</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.595753475688547</v>
@@ -21781,7 +21745,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.485193749415298</v>
+        <v>1.413869985515918</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.534913594851417</v>
@@ -21870,7 +21834,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.478434392322528</v>
+        <v>1.408582532111561</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.622294431286137</v>
@@ -21959,7 +21923,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.472937065803235</v>
+        <v>1.402271805621898</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.602304698022775</v>
@@ -22048,7 +22012,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.491075126093607</v>
+        <v>1.413295971275729</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.531824178785387</v>
@@ -22137,7 +22101,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.478009380367051</v>
+        <v>1.40542322033607</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.571386113409463</v>
@@ -22226,7 +22190,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.478275522609527</v>
+        <v>1.403680419046174</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.537322990597908</v>
@@ -22315,7 +22279,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.488385483111915</v>
+        <v>1.40961091374378</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.605424107638298</v>
@@ -22404,7 +22368,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.483854425222066</v>
+        <v>1.405250762063156</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.667656988306116</v>
@@ -22493,7 +22457,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478727820861153</v>
+        <v>1.404176682521755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.741099091697501</v>
@@ -22582,7 +22546,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.397439482975677</v>
+        <v>1.340386350187154</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.708017624418844</v>
@@ -22671,7 +22635,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.402322551665789</v>
+        <v>1.349002124932742</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.69031427790658</v>
@@ -22760,7 +22724,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.407445349863636</v>
+        <v>1.358612654840109</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.713166151590781</v>
@@ -22849,7 +22813,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.405713567163585</v>
+        <v>1.36263492529826</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.713813963836035</v>
@@ -22938,7 +22902,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.405238663330185</v>
+        <v>1.364894934606572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.72049777783466</v>
@@ -23027,7 +22991,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.395597300003144</v>
+        <v>1.355879226858966</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.72519463308609</v>
@@ -23116,7 +23080,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.407223648642195</v>
+        <v>1.368848355865414</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.720878560572011</v>
@@ -23205,7 +23169,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.4090993250969</v>
+        <v>1.372533559810865</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.694624697633487</v>
@@ -23294,7 +23258,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.410648136333145</v>
+        <v>1.371531590257784</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.714789098455498</v>
@@ -23580,7 +23544,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.378243747347579</v>
+        <v>1.350084710858249</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.33139802165189</v>
@@ -23669,7 +23633,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.332864076202098</v>
+        <v>1.316384320324377</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.273585640920202</v>
@@ -23758,7 +23722,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.342434443220555</v>
+        <v>1.326060037996969</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.124688707751101</v>
@@ -23847,7 +23811,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.343047971138711</v>
+        <v>1.332248267522962</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.30542885327708</v>
@@ -23936,7 +23900,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.339566325777997</v>
+        <v>1.330116576417624</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.280204237081098</v>
@@ -24025,7 +23989,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.319962748348798</v>
+        <v>1.312338544573125</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.200647518724187</v>
@@ -24114,7 +24078,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.339015011683656</v>
+        <v>1.335840926928657</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.2803371963268</v>
@@ -24203,7 +24167,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.346617239364082</v>
+        <v>1.344750955173432</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.227138953154355</v>
@@ -24292,7 +24256,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.345976542233451</v>
+        <v>1.347510101363414</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.258881034097168</v>
@@ -24381,7 +24345,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.356873004246071</v>
+        <v>1.355253367031518</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.239051658187886</v>
@@ -24470,7 +24434,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.368037163171049</v>
+        <v>1.361474819600046</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.332411253770478</v>
@@ -24559,7 +24523,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.375118634439484</v>
+        <v>1.375838031337099</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.352919803398822</v>
@@ -24648,7 +24612,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.361013480327078</v>
+        <v>1.36314278089658</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.24507963721738</v>
@@ -24737,7 +24701,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.355460240558249</v>
+        <v>1.353294716082035</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.275329025232008</v>
@@ -24826,7 +24790,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.341646346964903</v>
+        <v>1.338021954211051</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.384074426920795</v>
@@ -24915,7 +24879,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.354873398500413</v>
+        <v>1.352371551272875</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.10053658570292</v>
@@ -25004,7 +24968,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.36610052128771</v>
+        <v>1.362159383949244</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.367644208037536</v>
@@ -25093,7 +25057,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.345930807855965</v>
+        <v>1.348809716560238</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.421047755675005</v>
@@ -25182,7 +25146,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.34621935567085</v>
+        <v>1.348089281219974</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.455264981964639</v>
@@ -25271,7 +25235,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.343121287441895</v>
+        <v>1.341382684080674</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.468109546537316</v>
@@ -25360,7 +25324,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.353686268280505</v>
+        <v>1.352829610763418</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.327003689373254</v>
@@ -25449,7 +25413,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.345785054222682</v>
+        <v>1.34315879169854</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.282867791893321</v>
@@ -25538,7 +25502,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.346561496438648</v>
+        <v>1.345894603873373</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.430190370768961</v>
@@ -25627,7 +25591,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.34239726243186</v>
+        <v>1.342035111896869</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.43517706455603</v>
@@ -25716,7 +25680,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.324775543961018</v>
+        <v>1.327015034036349</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.34175601106249</v>
@@ -25805,7 +25769,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.31117500915463</v>
+        <v>1.318032699985317</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.348403483065274</v>
@@ -25894,7 +25858,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.303392243518659</v>
+        <v>1.306913214968134</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.22360362922775</v>
@@ -25983,7 +25947,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.315338555185063</v>
+        <v>1.321456550411379</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.449950950508261</v>
@@ -26072,7 +26036,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.318638529581713</v>
+        <v>1.327635611185386</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.322919854338992</v>
@@ -26161,7 +26125,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.327834932357823</v>
+        <v>1.339767660093609</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.432759759082869</v>
@@ -26250,7 +26214,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.328595249071612</v>
+        <v>1.340788534030386</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.490334313638765</v>
@@ -26339,7 +26303,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.333697421898552</v>
+        <v>1.341034427153501</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.222513001842323</v>
@@ -26428,7 +26392,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.343025380390741</v>
+        <v>1.34509452020881</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.55485498555841</v>
@@ -26517,7 +26481,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.342543534398224</v>
+        <v>1.347336921345895</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.414816259007285</v>
@@ -26606,7 +26570,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.344747504593666</v>
+        <v>1.349537928327259</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.433525320830258</v>
@@ -26695,7 +26659,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.343744999433454</v>
+        <v>1.347383552310903</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.539346286491607</v>
@@ -26784,7 +26748,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.347835228382248</v>
+        <v>1.348411716406069</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.17815170989334</v>
@@ -26873,7 +26837,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.347806013069472</v>
+        <v>1.346386777531128</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.52300238122995</v>
@@ -26962,7 +26926,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.344260266688588</v>
+        <v>1.345030107558727</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.615473970476824</v>
@@ -27051,7 +27015,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.361366474068537</v>
+        <v>1.355254583337575</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.324841258494433</v>
@@ -27140,7 +27104,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.308974887351547</v>
+        <v>1.304262456250537</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.830617542039359</v>
@@ -27229,7 +27193,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.32699683091888</v>
+        <v>1.327806768680096</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.806876885510825</v>
@@ -27318,7 +27282,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.316703693132372</v>
+        <v>1.324237671064993</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.792507689919595</v>
@@ -27407,7 +27371,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.314619302320247</v>
+        <v>1.324699017300193</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.830193775291656</v>
@@ -27496,7 +27460,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.31076508659793</v>
+        <v>1.3192897194964</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.796543085197062</v>
@@ -27585,7 +27549,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.308306615884646</v>
+        <v>1.317923628253902</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.841557219732648</v>
@@ -27674,7 +27638,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.305987959677203</v>
+        <v>1.316722074622997</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.798675840156092</v>
@@ -27763,7 +27727,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.305359250452747</v>
+        <v>1.316492346823946</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.812811606379214</v>
@@ -27852,7 +27816,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.310671956328017</v>
+        <v>1.319352405780815</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.814910747718868</v>
@@ -28138,7 +28102,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397240382083242</v>
+        <v>1.370993086740277</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.498060093696991</v>
@@ -28227,7 +28191,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.371682721884726</v>
+        <v>1.350345399392139</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.426242836471788</v>
@@ -28316,7 +28280,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.373791577502368</v>
+        <v>1.350686548823681</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.453688489030617</v>
@@ -28405,7 +28369,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.388852358876491</v>
+        <v>1.362797224779785</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.174395809978583</v>
@@ -28494,7 +28458,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.413362260413125</v>
+        <v>1.379526826771076</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.347380294701643</v>
@@ -28583,7 +28547,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.428088314725563</v>
+        <v>1.390212500007004</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.042478750122355</v>
@@ -28672,7 +28636,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.475090938008842</v>
+        <v>1.424357723583336</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.101478812417226</v>
@@ -28761,7 +28725,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.444938332811528</v>
+        <v>1.397642707705258</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.273944819521883</v>
@@ -28850,7 +28814,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442944603226779</v>
+        <v>1.401139979664302</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.277483150512011</v>
@@ -28939,7 +28903,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.451874348154432</v>
+        <v>1.407437072895297</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.294694857500378</v>
@@ -29028,7 +28992,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458217147957863</v>
+        <v>1.40990356977532</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.231960554899001</v>
@@ -29117,7 +29081,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453556331373694</v>
+        <v>1.417426043287558</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.226906768014959</v>
@@ -29206,7 +29170,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.443431740525093</v>
+        <v>1.409865202757839</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.333990751529103</v>
@@ -29295,7 +29259,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.417075702815426</v>
+        <v>1.389270290335344</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.323360638332889</v>
@@ -29384,7 +29348,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.415690793776708</v>
+        <v>1.383887118894702</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.302475018578155</v>
@@ -29473,7 +29437,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40431684189797</v>
+        <v>1.374959467906121</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.065386837716964</v>
@@ -29562,7 +29526,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.427294668122026</v>
+        <v>1.397411969691877</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.395151993369783</v>
@@ -29651,7 +29615,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.407658801876282</v>
+        <v>1.381884772847445</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.501284398827879</v>
@@ -29740,7 +29704,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.411880625803317</v>
+        <v>1.387084486367642</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.442360332418683</v>
@@ -29829,7 +29793,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.40487057816985</v>
+        <v>1.382406932758715</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.445676962524979</v>
@@ -29918,7 +29882,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.392463709435818</v>
+        <v>1.376327981486865</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.417271242275154</v>
@@ -30007,7 +29971,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.382375768227828</v>
+        <v>1.368645194176318</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.392506157287499</v>
@@ -30096,7 +30060,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.412705338331043</v>
+        <v>1.396903257446763</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.42780738799055</v>
@@ -30185,7 +30149,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.411089730668192</v>
+        <v>1.393544876921401</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.458250577123616</v>
@@ -30274,7 +30238,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.414627685051118</v>
+        <v>1.395741001240617</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.483840471083683</v>
@@ -30363,7 +30327,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.417547545351039</v>
+        <v>1.399097823277488</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.48446529112558</v>
@@ -30452,7 +30416,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.421723228620613</v>
+        <v>1.400864284869725</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.416440759308365</v>
@@ -30541,7 +30505,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.424327126175249</v>
+        <v>1.401059337584522</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.360419137176889</v>
@@ -30630,7 +30594,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.453414513377283</v>
+        <v>1.426006242533745</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.40114208477498</v>
@@ -30719,7 +30683,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484144351996435</v>
+        <v>1.452269803485824</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.065306608565761</v>
@@ -30808,7 +30772,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528104761877233</v>
+        <v>1.487520686640955</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.528689947311542</v>
@@ -30897,7 +30861,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.525631524556908</v>
+        <v>1.478391532173154</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.305180552039742</v>
@@ -30986,7 +30950,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.545116841341805</v>
+        <v>1.493619285230356</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.470282507165757</v>
@@ -31075,7 +31039,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541436155812248</v>
+        <v>1.489647541986747</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.569153864792007</v>
@@ -31164,7 +31128,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.562406595921782</v>
+        <v>1.505292445074922</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.511715657107202</v>
@@ -31253,7 +31217,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.594124989944461</v>
+        <v>1.524317907178299</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.362624728064151</v>
@@ -31342,7 +31306,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.621983767206249</v>
+        <v>1.54282101851773</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.252400345616154</v>
@@ -31431,7 +31395,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.621872716902377</v>
+        <v>1.54532880372303</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.394940261902809</v>
@@ -31520,7 +31484,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.614915368569467</v>
+        <v>1.532046188467748</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.71847066116691</v>
@@ -31609,7 +31573,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.601344737971476</v>
+        <v>1.526292126985179</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.469822266572786</v>
@@ -31698,7 +31662,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.435368048779698</v>
+        <v>1.394254814889416</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.637801249524333</v>
@@ -31787,7 +31751,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.448469756177989</v>
+        <v>1.417200682432052</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.637060093061121</v>
@@ -31876,7 +31840,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.448398869090427</v>
+        <v>1.420549887604089</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.661831885530156</v>
@@ -31965,7 +31929,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.454885885105452</v>
+        <v>1.426576731668414</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.641407693991243</v>
@@ -32054,7 +32018,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.452985916359639</v>
+        <v>1.427709762941051</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.659509124227871</v>
@@ -32143,7 +32107,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.454739324608983</v>
+        <v>1.432562705990511</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.650115684752372</v>
@@ -32232,7 +32196,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.450334074882396</v>
+        <v>1.428444390126109</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.651935870048458</v>
@@ -32321,7 +32285,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454359948784634</v>
+        <v>1.432011153403128</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.637807387115717</v>
@@ -32410,7 +32374,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.453541768688859</v>
+        <v>1.430587726804442</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.640324241666629</v>
